--- a/MessagePack.Attributeless.Microbenchmark/Analysis.xlsx
+++ b/MessagePack.Attributeless.Microbenchmark/Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Github\MessagePackExtras\MessagePack.Attributeless.Microbenchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D505AA90-5569-4522-A75B-10504283D2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53542B7C-4F7B-4301-8B69-E2370A1BCCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{39B36ADA-28FF-4100-8185-9B0FE9F2E3F6}"/>
+    <workbookView xWindow="18420" yWindow="3195" windowWidth="12150" windowHeight="21285" xr2:uid="{39B36ADA-28FF-4100-8185-9B0FE9F2E3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="benchmark" sheetId="2" r:id="rId1"/>
@@ -101,7 +101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -135,7 +135,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -146,25 +146,25 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -232,7 +232,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A713083-421E-4C1F-BA04-4AF3868C4C5D}" type="CELLRANGE">
+                    <a:fld id="{0E043462-EB6A-4836-A213-FC01D110AA24}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -265,7 +265,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EB1FB72-5429-4151-B976-EECB85F5436B}" type="CELLRANGE">
+                    <a:fld id="{70F88287-4DBC-4EB1-B74E-A1CE21282615}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -298,7 +298,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A1405925-0158-4473-8D11-DF7072798F6C}" type="CELLRANGE">
+                    <a:fld id="{1CD13514-8448-4615-A9A4-A94F04F3B985}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -331,7 +331,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACBC656B-743F-4207-9F70-EAC5312710D9}" type="CELLRANGE">
+                    <a:fld id="{261F31D0-233E-42E7-B1CE-C09D88F49284}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -364,7 +364,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CCC01EC4-516D-4245-B765-D35A94DAC980}" type="CELLRANGE">
+                    <a:fld id="{9CC57789-C9C4-41AE-A3A2-63BA5163E0F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1446,26 +1446,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0017D32-E723-4FFA-83A5-47B6AA2DB8FD}" name="benchmark" displayName="benchmark" ref="A1:K6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F0017D32-E723-4FFA-83A5-47B6AA2DB8FD}" name="benchmark" displayName="benchmark" ref="A1:K6" tableType="queryTable" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:K6" xr:uid="{CBB29F2F-D7CB-49E1-8216-9B89E965AF60}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{06FE6372-1054-4EF7-8459-26350E9D20E7}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{06FE6372-1054-4EF7-8459-26350E9D20E7}" uniqueName="1" name="Name" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{DC9CBF02-C529-43A0-BBBF-86F4C7DC9E9B}" uniqueName="2" name="Size (bytes)" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{E29434EA-E386-4B7D-9892-4D9963836FA8}" uniqueName="3" name="TotalSerializeDuration (ms)" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{EB90A645-4140-46BE-973B-EE934B58724C}" uniqueName="4" name="TotalDeserializeDuration (ms)" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{B3FABBC2-941F-43DA-A13B-8986AD919B88}" uniqueName="5" name="Repetitions" queryTableFieldId="5"/>
     <tableColumn id="10" xr3:uid="{3B049127-280B-4236-BE70-4CD88E3FD397}" uniqueName="10" name="Number of attributes" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{08326707-3D82-4F54-B387-53CA36103FDE}" uniqueName="11" name="Number of types being touched" queryTableFieldId="11" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{05A11E09-AA9F-44C2-BCF0-C6AA16936673}" uniqueName="6" name="SerializeDuration per rep" queryTableFieldId="6" dataDxfId="2">
+    <tableColumn id="11" xr3:uid="{08326707-3D82-4F54-B387-53CA36103FDE}" uniqueName="11" name="Number of types being touched" queryTableFieldId="11" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{05A11E09-AA9F-44C2-BCF0-C6AA16936673}" uniqueName="6" name="SerializeDuration per rep" queryTableFieldId="6" dataDxfId="3">
       <calculatedColumnFormula>benchmark[[#This Row],[TotalSerializeDuration (ms)]]/benchmark[[#This Row],[Repetitions]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{40575D5B-C065-4C8E-A9CF-F908D8A7DA8B}" uniqueName="7" name="DeserializeDuration per rep" queryTableFieldId="7" dataDxfId="5">
+    <tableColumn id="7" xr3:uid="{40575D5B-C065-4C8E-A9CF-F908D8A7DA8B}" uniqueName="7" name="DeserializeDuration per rep" queryTableFieldId="7" dataDxfId="2">
       <calculatedColumnFormula>benchmark[[#This Row],[TotalDeserializeDuration (ms)]]/benchmark[[#This Row],[Repetitions]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A2BDB6FF-8EF5-475F-BA7F-3086865C2097}" uniqueName="8" name="Speed Score (serialize * deserialize)" queryTableFieldId="8" dataDxfId="4">
+    <tableColumn id="8" xr3:uid="{A2BDB6FF-8EF5-475F-BA7F-3086865C2097}" uniqueName="8" name="Speed Score (serialize * deserialize)" queryTableFieldId="8" dataDxfId="1">
       <calculatedColumnFormula>benchmark[[#This Row],[SerializeDuration per rep]]*benchmark[[#This Row],[DeserializeDuration per rep]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{FF1FDBA8-08D0-45A6-BFC9-55577F9D2F37}" uniqueName="9" name="Performance score (size * Speed score)" queryTableFieldId="9" dataDxfId="3">
+    <tableColumn id="9" xr3:uid="{FF1FDBA8-08D0-45A6-BFC9-55577F9D2F37}" uniqueName="9" name="Performance score (size * Speed score)" queryTableFieldId="9" dataDxfId="0">
       <calculatedColumnFormula>benchmark[[#This Row],[Speed Score (serialize * deserialize)]]*benchmark[[#This Row],[Size (bytes)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
